--- a/DatathonReference.xlsx
+++ b/DatathonReference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinyeung/Documents/datathon2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7891EB-4629-EE43-A693-BFCAE4CA8D47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF6621F-FC3D-2842-B57D-B4ED9A4F5438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{82FE1C29-958A-4055-BB6E-26553B9841EE}"/>
   </bookViews>
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359AD2DA-1B9C-4852-8124-C2A3CC8455D6}">
   <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="226" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4660,7 +4660,7 @@
       <c r="B236" t="s">
         <v>32</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="4">
         <v>9</v>
       </c>
       <c r="D236" t="s">
@@ -4674,7 +4674,7 @@
       <c r="B237" t="s">
         <v>32</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="4">
         <v>-1</v>
       </c>
       <c r="D237" t="s">
@@ -4696,7 +4696,7 @@
       <c r="B239" t="s">
         <v>33</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="4">
         <v>-1</v>
       </c>
       <c r="D239" t="s">
@@ -4717,7 +4717,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>29</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>29</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>29</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>29</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>29</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>29</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>29</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>29</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>29</v>
       </c>
@@ -4857,21 +4857,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>29</v>
       </c>
       <c r="B251" t="s">
         <v>34</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="4">
         <v>-1</v>
       </c>
       <c r="D251" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>29</v>
       </c>
@@ -4884,8 +4884,11 @@
       <c r="D252" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>29</v>
       </c>
@@ -4898,8 +4901,11 @@
       <c r="D253" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>29</v>
       </c>
@@ -4912,22 +4918,25 @@
       <c r="D254" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>29</v>
       </c>
       <c r="B255" t="s">
         <v>36</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="7">
         <v>0</v>
       </c>
       <c r="D255" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>29</v>
       </c>
@@ -5060,7 +5069,7 @@
       <c r="B265" t="s">
         <v>36</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="4">
         <v>10</v>
       </c>
       <c r="D265" t="s">
@@ -5074,7 +5083,7 @@
       <c r="B266" t="s">
         <v>36</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="4">
         <v>-1</v>
       </c>
       <c r="D266" t="s">
@@ -5214,7 +5223,7 @@
       <c r="B276" t="s">
         <v>37</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="4">
         <v>9</v>
       </c>
       <c r="D276" t="s">
@@ -5228,7 +5237,7 @@
       <c r="B277" t="s">
         <v>37</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="4">
         <v>-1</v>
       </c>
       <c r="D277" t="s">
@@ -5284,7 +5293,7 @@
       <c r="B281" t="s">
         <v>38</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="4">
         <v>9</v>
       </c>
       <c r="D281" t="s">
@@ -5298,7 +5307,7 @@
       <c r="B282" t="s">
         <v>38</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="4">
         <v>-1</v>
       </c>
       <c r="D282" t="s">
@@ -5382,7 +5391,7 @@
       <c r="B288" t="s">
         <v>39</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="4">
         <v>9</v>
       </c>
       <c r="D288" t="s">
@@ -5396,7 +5405,7 @@
       <c r="B289" t="s">
         <v>39</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="4">
         <v>-1</v>
       </c>
       <c r="D289" t="s">
@@ -5469,7 +5478,7 @@
       <c r="B294" t="s">
         <v>40</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="4">
         <v>-1</v>
       </c>
       <c r="D294" t="s">
@@ -5825,7 +5834,7 @@
       <c r="B316" t="s">
         <v>41</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="4">
         <v>99</v>
       </c>
       <c r="D316" t="s">
@@ -6148,7 +6157,7 @@
       <c r="B335" t="s">
         <v>43</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="4">
         <v>-1</v>
       </c>
       <c r="D335" t="s">
@@ -6216,7 +6225,7 @@
       <c r="B339" t="s">
         <v>42</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="4">
         <v>-1</v>
       </c>
       <c r="D339" t="s">
